--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,49 +46,52 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>cut</t>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
@@ -100,6 +103,9 @@
     <t>oil</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -112,94 +118,109 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -557,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,10 +665,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -676,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.791095890410959</v>
+        <v>0.8013698630136986</v>
       </c>
       <c r="C4">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D4">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L5">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7666666666666667</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7567567567567568</v>
+        <v>0.7</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,16 +918,16 @@
         <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8328981723237598</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L8">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M8">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8085106382978723</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7307692307692307</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.7926829268292683</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5661375661375662</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C11">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D11">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.7906976744186046</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L11">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.559322033898305</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.7830188679245284</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.525</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.7816901408450704</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5116279069767442</v>
+        <v>0.5077519379844961</v>
       </c>
       <c r="C14">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D14">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.76875</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4832214765100671</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C15">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4705882352941176</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1318,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1347,16 +1368,16 @@
         <v>44</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.7734375</v>
+        <v>0.7578125</v>
       </c>
       <c r="L17">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M17">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1368,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1376,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3818181818181818</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1394,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L18">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="M18">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1418,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1426,7 +1447,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3454545454545455</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C19">
         <v>19</v>
@@ -1444,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1468,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,13 +1497,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.25</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C20">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1494,19 +1515,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.7037037037037037</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1518,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1526,13 +1547,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1501340482573726</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="C21">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D21">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1544,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>317</v>
+        <v>194</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.6984126984126984</v>
+        <v>0.6875</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M21">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1568,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1576,49 +1597,49 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.06666666666666667</v>
+        <v>0.1313672922252011</v>
       </c>
       <c r="C22">
+        <v>49</v>
+      </c>
+      <c r="D22">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>324</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="L22">
+        <v>43</v>
+      </c>
+      <c r="M22">
+        <v>43</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>20</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>280</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L22">
-        <v>22</v>
-      </c>
-      <c r="M22">
-        <v>22</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1626,89 +1647,137 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007734450531743474</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>279</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23">
+        <v>0.6617647058823529</v>
+      </c>
+      <c r="L23">
+        <v>225</v>
+      </c>
+      <c r="M23">
+        <v>225</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.01168224299065421</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+      <c r="D24">
         <v>28</v>
       </c>
-      <c r="E23">
-        <v>0.14</v>
-      </c>
-      <c r="F23">
-        <v>0.86</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>3079</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23">
+      <c r="E24">
+        <v>0.11</v>
+      </c>
+      <c r="F24">
+        <v>0.89</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2115</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="L24">
+        <v>23</v>
+      </c>
+      <c r="M24">
+        <v>23</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.01160541586073501</v>
+      </c>
+      <c r="C25">
+        <v>36</v>
+      </c>
+      <c r="D25">
+        <v>41</v>
+      </c>
+      <c r="E25">
+        <v>0.12</v>
+      </c>
+      <c r="F25">
+        <v>0.88</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>3066</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25">
         <v>0.65</v>
       </c>
-      <c r="L23">
-        <v>221</v>
-      </c>
-      <c r="M23">
-        <v>221</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L24">
-        <v>40</v>
-      </c>
-      <c r="M24">
-        <v>40</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25">
-        <v>0.6063829787234043</v>
-      </c>
       <c r="L25">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1720,21 +1789,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.5830508474576271</v>
+        <v>0.62</v>
       </c>
       <c r="L26">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1746,21 +1815,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.5714285714285714</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1772,21 +1841,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.5690376569037657</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="L28">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="M28">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1798,21 +1867,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.5600000000000001</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1824,21 +1893,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.5285714285714286</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1850,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.525</v>
+        <v>0.5606694560669456</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1876,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.5056179775280899</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1902,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.3287671232876712</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1928,33 +1997,163 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.282051282051282</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L34">
+        <v>20</v>
+      </c>
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>22</v>
       </c>
-      <c r="M34">
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="L35">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>21</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36">
+        <v>0.328125</v>
+      </c>
+      <c r="L36">
+        <v>21</v>
+      </c>
+      <c r="M36">
+        <v>21</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37">
+        <v>0.3150684931506849</v>
+      </c>
+      <c r="L37">
+        <v>23</v>
+      </c>
+      <c r="M37">
+        <v>23</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38">
+        <v>0.2948717948717949</v>
+      </c>
+      <c r="L38">
+        <v>23</v>
+      </c>
+      <c r="M38">
+        <v>23</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39">
+        <v>0.006894390473205891</v>
+      </c>
+      <c r="L39">
         <v>22</v>
       </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>56</v>
+      <c r="M39">
+        <v>32</v>
+      </c>
+      <c r="N39">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O39">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>3169</v>
       </c>
     </row>
   </sheetData>
